--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788757</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788757</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036090349.652233</v>
+        <v>42859568.05076411</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8986.17199871288</v>
+        <v>1001759.212321193</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17005.30250742297</v>
+        <v>1851838.714545693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25024.43301613305</v>
+        <v>2701918.216770196</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33378.35335396237</v>
+        <v>3569395.866873486</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41644.84581300381</v>
+        <v>4419475.369097988</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49911.33827204524</v>
+        <v>5269554.871322489</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58177.83073108667</v>
+        <v>6119634.373546988</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66444.3231901281</v>
+        <v>6969713.875771485</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74710.81564916954</v>
+        <v>7819793.377995984</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82977.30810821096</v>
+        <v>8669872.880220482</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91243.80056725239</v>
+        <v>9519952.382444985</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99198.64369304231</v>
+        <v>10352633.73679071</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>107240.9146976201</v>
+        <v>11202713.23901521</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115283.1857021979</v>
+        <v>12052792.74123972</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123325.4567067758</v>
+        <v>12902872.24346423</v>
       </c>
     </row>
   </sheetData>
